--- a/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.25, 0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChuChu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,10 @@
   </si>
   <si>
     <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4, 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,8 +485,8 @@
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="11.125" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
@@ -587,19 +587,19 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>1.6</v>
@@ -620,10 +620,10 @@
         <v>50</v>
       </c>
       <c r="M3">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -631,19 +631,19 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G4">
         <v>1.6</v>
@@ -664,10 +664,10 @@
         <v>60</v>
       </c>
       <c r="M4">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
@@ -477,7 +477,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
         <v>50</v>
       </c>
       <c r="M3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>20</v>
@@ -664,7 +664,7 @@
         <v>60</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N4">
         <v>20</v>

--- a/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>maxMana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,17 @@
   </si>
   <si>
     <t>0.4, 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChuChuBoss</t>
+  </si>
+  <si>
+    <t>Prefabs/Actor/Mosnter/ChuChuBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -491,10 +498,9 @@
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,16 +508,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -534,72 +540,66 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="G3">
         <v>1.6</v>
@@ -617,33 +617,30 @@
         <v>45</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M3">
         <v>20</v>
       </c>
-      <c r="N3">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>1.6</v>
@@ -661,12 +658,50 @@
         <v>40</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M4">
         <v>20</v>
       </c>
-      <c r="N4">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>0.8</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
         <v>20</v>
       </c>
     </row>

--- a/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -129,11 +129,11 @@
     <t>ChuChuBoss</t>
   </si>
   <si>
-    <t>Prefabs/Actor/Mosnter/ChuChuBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
+    <t>Prefabs/Actor/Monster/ChuChuBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -690,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="I5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>100</v>

--- a/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
@@ -484,7 +484,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -687,10 +687,10 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>2</v>

--- a/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
+++ b/My 3D RPG/Assets/StaticData/Excel/Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -58,82 +58,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dropItemPer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000, 1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChuChu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChuChu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Actor/Monster/ChuChu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Actor/Monster/ChuChu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4, 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChuChuBoss</t>
+  </si>
+  <si>
+    <t>Prefabs/Actor/Monster/ChuChuBoss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>dropItemRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropItemPer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000, 1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChuChu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChuChu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Actor/Monster/ChuChu1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Actor/Monster/ChuChu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4, 0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChuChuBoss</t>
-  </si>
-  <si>
-    <t>Prefabs/Actor/Monster/ChuChuBoss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +484,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,16 +508,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -543,43 +543,43 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -587,19 +587,19 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
       </c>
       <c r="G3">
         <v>1.6</v>
@@ -617,10 +617,10 @@
         <v>45</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -628,19 +628,19 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>1.6</v>
@@ -658,10 +658,10 @@
         <v>40</v>
       </c>
       <c r="L4">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -669,13 +669,13 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
       </c>
       <c r="E5">
         <v>1000</v>
@@ -684,10 +684,10 @@
         <v>0.8</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -696,13 +696,13 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
